--- a/Question_Sets/Cognitive ability/Attention to Detail (Visual).xlsx
+++ b/Question_Sets/Cognitive ability/Attention to Detail (Visual).xlsx
@@ -16,23 +16,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'How many differences do you see between these two images?', 'ques_type': 2, 'options': ['0', '1', '2', '3'], 'score': '1'}, {'title': 'Which two of the below images are identical?', 'ques_type': 2, 'options': ['A + B', 'A + C', 'A + D', 'B + C', 'B + D', 'C + D'], 'score': 'A + D'}, {'title': 'How many squares do you see in the image below?(Only type a number in the answer box. Example: 3)', 'ques_type': None, 'options': [], 'score': None}, {'title': 'In which area of the image on the right can FIG.1 be found?', 'ques_type': 2, 'options': ['A1', 'A2', 'B1', 'B2', 'C1', 'C2'], 'score': 'B2'}]</t>
+    <t>questions = [
+    {
+        "title": "How many differences do you see between these two images?",
+        "ques_type": 2,
+        "options": [
+            "0",
+            "1",
+            "2",
+            "3"
+        ],
+        "score": "1"
+    },
+    {
+        "title": "Which two of the below images are identical?",
+        "ques_type": 2,
+        "options": [
+            "A + B",
+            "A + C",
+            "A + D",
+            "B + C",
+            "B + D",
+            "C + D"
+        ],
+        "score": "A + D"
+    },
+    {
+        "title": "How many squares do you see in the image below?(Only type a number in the answer box. Example: 3)",
+        "ques_type": null,
+        "options": [],
+        "score": null
+    },
+    {
+        "title": "In which area of the image on the right can FIG.1 be found?",
+        "ques_type": 2,
+        "options": [
+            "A1",
+            "A2",
+            "B1",
+            "B2",
+            "C1",
+            "C2"
+        ],
+        "score": "B2"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +92,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +392,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
